--- a/frontend/web/download/2019-01-01to2019-01-01.xlsx
+++ b/frontend/web/download/2019-01-01to2019-01-01.xlsx
@@ -15,7 +15,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>В том числе НДС</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,14 +371,47 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>SUM(D4:D1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f>(D2/100) * 20</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
